--- a/Code/Results/Cases/Case_5_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.60365288162751</v>
+        <v>24.57465587734637</v>
       </c>
       <c r="C2">
-        <v>17.05410703502856</v>
+        <v>9.256536877775636</v>
       </c>
       <c r="D2">
-        <v>5.170965909222496</v>
+        <v>7.852815787582229</v>
       </c>
       <c r="E2">
-        <v>5.631849147083172</v>
+        <v>9.589500852679581</v>
       </c>
       <c r="F2">
-        <v>41.49293326998573</v>
+        <v>41.57193039689167</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.758166866812513</v>
+        <v>10.48871128386846</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.54572070562899</v>
+        <v>20.10905685934477</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.58318679699662</v>
+        <v>24.07473069002777</v>
       </c>
       <c r="C3">
-        <v>15.8375778985886</v>
+        <v>8.639776147237788</v>
       </c>
       <c r="D3">
-        <v>5.21106226339469</v>
+        <v>7.875895845758047</v>
       </c>
       <c r="E3">
-        <v>5.666783217876937</v>
+        <v>9.608231250050473</v>
       </c>
       <c r="F3">
-        <v>39.41272198803335</v>
+        <v>41.2008612623715</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.474436082922765</v>
+        <v>10.47213174224119</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.75479563511761</v>
+        <v>20.16594502128077</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.33174911281367</v>
+        <v>23.77074027902026</v>
       </c>
       <c r="C4">
-        <v>15.05606638253316</v>
+        <v>8.237740905599523</v>
       </c>
       <c r="D4">
-        <v>5.240258295869026</v>
+        <v>7.891315933408685</v>
       </c>
       <c r="E4">
-        <v>5.689814234437002</v>
+        <v>9.620485003206959</v>
       </c>
       <c r="F4">
-        <v>38.13582115413912</v>
+        <v>40.9843093299569</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.302344795383477</v>
+        <v>10.46427795857785</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.88818312458427</v>
+        <v>20.20286001205965</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.81142918111344</v>
+        <v>23.64779423517601</v>
       </c>
       <c r="C5">
-        <v>14.72868598027155</v>
+        <v>8.068018890434301</v>
       </c>
       <c r="D5">
-        <v>5.253213789470276</v>
+        <v>7.897912594986595</v>
       </c>
       <c r="E5">
-        <v>5.699589002545007</v>
+        <v>9.625668289068519</v>
       </c>
       <c r="F5">
-        <v>37.61585519903522</v>
+        <v>40.89897459810155</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.232790033724802</v>
+        <v>10.46166356297643</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.94375412354417</v>
+        <v>20.21840202707692</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.72440958890853</v>
+        <v>23.62744093717568</v>
       </c>
       <c r="C6">
-        <v>14.6737806968443</v>
+        <v>8.039480391074317</v>
       </c>
       <c r="D6">
-        <v>5.255426411825365</v>
+        <v>7.899026826828183</v>
       </c>
       <c r="E6">
-        <v>5.701235397851962</v>
+        <v>9.626540443350621</v>
       </c>
       <c r="F6">
-        <v>37.52954926066867</v>
+        <v>40.88498273707329</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.221276562636228</v>
+        <v>10.46126486766305</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.9530538135076</v>
+        <v>20.22101288555718</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.32477362735153</v>
+        <v>23.76907816234892</v>
       </c>
       <c r="C7">
-        <v>15.05168755833325</v>
+        <v>8.235475847662768</v>
       </c>
       <c r="D7">
-        <v>5.240428850157619</v>
+        <v>7.891403633108447</v>
       </c>
       <c r="E7">
-        <v>5.689944493562068</v>
+        <v>9.620554137878608</v>
       </c>
       <c r="F7">
-        <v>38.1288066881447</v>
+        <v>40.98314659264262</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.301404370762329</v>
+        <v>10.46424032567515</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.88892771169058</v>
+        <v>20.20306759773546</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.88305102682118</v>
+        <v>24.40177773232991</v>
       </c>
       <c r="C8">
-        <v>16.64168196801937</v>
+        <v>9.048710301975317</v>
       </c>
       <c r="D8">
-        <v>5.183781882602053</v>
+        <v>7.860513881002285</v>
       </c>
       <c r="E8">
-        <v>5.643560902990288</v>
+        <v>9.595802992537925</v>
       </c>
       <c r="F8">
-        <v>40.77573555482709</v>
+        <v>41.44168969227907</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.659917103258053</v>
+        <v>10.48251270127108</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.61673796969344</v>
+        <v>20.12825957886528</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.88619342156468</v>
+        <v>25.65793799425828</v>
       </c>
       <c r="C9">
-        <v>19.49656940052375</v>
+        <v>10.45915852073305</v>
       </c>
       <c r="D9">
-        <v>5.113818247516845</v>
+        <v>7.809901798322071</v>
       </c>
       <c r="E9">
-        <v>5.565588471112866</v>
+        <v>9.553225437205752</v>
       </c>
       <c r="F9">
-        <v>45.96406774186836</v>
+        <v>42.42689102791093</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.378724974091764</v>
+        <v>10.53673197986329</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.12543726108337</v>
+        <v>19.9973322749885</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.32601737333193</v>
+        <v>26.57971266673569</v>
       </c>
       <c r="C10">
-        <v>21.45146225597331</v>
+        <v>11.38431239429845</v>
       </c>
       <c r="D10">
-        <v>5.095263949747632</v>
+        <v>7.778865465389941</v>
       </c>
       <c r="E10">
-        <v>5.51696082659285</v>
+        <v>9.525553289586037</v>
       </c>
       <c r="F10">
-        <v>49.78047798337226</v>
+        <v>43.19801815052898</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.916387154791387</v>
+        <v>10.58765641627453</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.7952400963862</v>
+        <v>19.91077829836105</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.84664790546227</v>
+        <v>26.99670009313969</v>
       </c>
       <c r="C11">
-        <v>22.31459764710631</v>
+        <v>11.78133141734197</v>
       </c>
       <c r="D11">
-        <v>5.096054892915075</v>
+        <v>7.766097839835222</v>
       </c>
       <c r="E11">
-        <v>5.496933422844895</v>
+        <v>9.513743412342714</v>
       </c>
       <c r="F11">
-        <v>51.52298460661046</v>
+        <v>43.55791197821222</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.163515098877498</v>
+        <v>10.61319629520944</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.65322870740446</v>
+        <v>19.87350149933702</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.41685384393733</v>
+        <v>27.15410227271438</v>
       </c>
       <c r="C12">
-        <v>22.63816096157389</v>
+        <v>11.92826517657317</v>
       </c>
       <c r="D12">
-        <v>5.09789196352041</v>
+        <v>7.761458749946631</v>
       </c>
       <c r="E12">
-        <v>5.489673513939068</v>
+        <v>9.509382875959673</v>
       </c>
       <c r="F12">
-        <v>52.18449638634238</v>
+        <v>43.69539951388224</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.257537125096418</v>
+        <v>10.62320523640169</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.60080269206525</v>
+        <v>19.85968796943787</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.29428678725156</v>
+        <v>27.12022777162954</v>
       </c>
       <c r="C13">
-        <v>22.56861358160966</v>
+        <v>11.89677166229859</v>
       </c>
       <c r="D13">
-        <v>5.097424229129913</v>
+        <v>7.76244913207368</v>
       </c>
       <c r="E13">
-        <v>5.491222234225622</v>
+        <v>9.510317036637538</v>
       </c>
       <c r="F13">
-        <v>52.04193929135905</v>
+        <v>43.66573728793939</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.237266669336403</v>
+        <v>10.62103468546539</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.61203030252305</v>
+        <v>19.86264949774952</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.89366712427147</v>
+        <v>27.00966064485445</v>
       </c>
       <c r="C14">
-        <v>22.34128027052608</v>
+        <v>11.79348795262505</v>
       </c>
       <c r="D14">
-        <v>5.096173892388933</v>
+        <v>7.765712247859424</v>
       </c>
       <c r="E14">
-        <v>5.496329502329633</v>
+        <v>9.513382433378686</v>
       </c>
       <c r="F14">
-        <v>51.57736903573905</v>
+        <v>43.56919965180992</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.171240978328534</v>
+        <v>10.61401299556405</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.64888738138705</v>
+        <v>19.87235898672665</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.64756763643496</v>
+        <v>26.94186494042982</v>
       </c>
       <c r="C15">
-        <v>22.20161940427928</v>
+        <v>11.72978034865748</v>
       </c>
       <c r="D15">
-        <v>5.095615062156102</v>
+        <v>7.767736534611047</v>
       </c>
       <c r="E15">
-        <v>5.499500816224334</v>
+        <v>9.515274602818019</v>
       </c>
       <c r="F15">
-        <v>51.29304950027139</v>
+        <v>43.51022113002914</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.13085844044722</v>
+        <v>10.60975584410452</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.67164512520243</v>
+        <v>19.87834573411007</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.22581086957679</v>
+        <v>26.55240017975752</v>
       </c>
       <c r="C16">
-        <v>21.3945667126033</v>
+        <v>11.35788822344564</v>
       </c>
       <c r="D16">
-        <v>5.095415241813501</v>
+        <v>7.779727169317383</v>
       </c>
       <c r="E16">
-        <v>5.518313648914844</v>
+        <v>9.526340727687382</v>
       </c>
       <c r="F16">
-        <v>49.66678722329695</v>
+        <v>43.17467246422938</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.900293519178568</v>
+        <v>10.58603477912578</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.80469957474818</v>
+        <v>19.91325669267001</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.34277199762766</v>
+        <v>26.31275740521278</v>
       </c>
       <c r="C17">
-        <v>20.89307978123284</v>
+        <v>11.12365259573329</v>
       </c>
       <c r="D17">
-        <v>5.097796523774266</v>
+        <v>7.787430084208665</v>
       </c>
       <c r="E17">
-        <v>5.530405819277196</v>
+        <v>9.533328558406476</v>
       </c>
       <c r="F17">
-        <v>48.67121256311284</v>
+        <v>42.97108161761194</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.75954314095679</v>
+        <v>10.5720881400301</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.88853326057029</v>
+        <v>19.9352111134027</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.83066342988731</v>
+        <v>26.17471107605079</v>
       </c>
       <c r="C18">
-        <v>20.60214332776592</v>
+        <v>10.98668155982642</v>
       </c>
       <c r="D18">
-        <v>5.100020717074535</v>
+        <v>7.791987666561871</v>
       </c>
       <c r="E18">
-        <v>5.537556344258297</v>
+        <v>9.537421051517951</v>
       </c>
       <c r="F18">
-        <v>48.09912744344635</v>
+        <v>42.85484497165262</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.678820240223169</v>
+        <v>10.56429012241622</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.93751123235426</v>
+        <v>19.94803604585935</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.65652964328528</v>
+        <v>26.12794009139926</v>
       </c>
       <c r="C19">
-        <v>20.50319565545131</v>
+        <v>10.93991937229946</v>
       </c>
       <c r="D19">
-        <v>5.10091467754556</v>
+        <v>7.793552565599031</v>
       </c>
       <c r="E19">
-        <v>5.540010329690965</v>
+        <v>9.538819294543153</v>
       </c>
       <c r="F19">
-        <v>47.90550423549143</v>
+        <v>42.81564071565763</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.651527146368695</v>
+        <v>10.56168838180633</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.95422012157629</v>
+        <v>19.95241221468436</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.43720368127975</v>
+        <v>26.33829077207369</v>
       </c>
       <c r="C20">
-        <v>20.94671890650685</v>
+        <v>11.14881957749092</v>
       </c>
       <c r="D20">
-        <v>5.097453171492127</v>
+        <v>7.786596934019413</v>
       </c>
       <c r="E20">
-        <v>5.529098209643085</v>
+        <v>9.532577110228017</v>
       </c>
       <c r="F20">
-        <v>48.77713245512639</v>
+        <v>42.99266560792142</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.774501713623359</v>
+        <v>10.57354965584807</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.87952934871479</v>
+        <v>19.93285359903686</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.01148495073937</v>
+        <v>27.04215179268834</v>
       </c>
       <c r="C21">
-        <v>22.40813860542638</v>
+        <v>11.823917241341</v>
       </c>
       <c r="D21">
-        <v>5.096497577306567</v>
+        <v>7.764748467714385</v>
       </c>
       <c r="E21">
-        <v>5.494820371890606</v>
+        <v>9.512479025516761</v>
       </c>
       <c r="F21">
-        <v>51.71377218952816</v>
+        <v>43.59752328345677</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.190621615824675</v>
+        <v>10.61606630812328</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.63802332495425</v>
+        <v>19.86949886090756</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.66159351241627</v>
+        <v>27.49916959382473</v>
       </c>
       <c r="C22">
-        <v>23.34438317104878</v>
+        <v>12.24527275301516</v>
       </c>
       <c r="D22">
-        <v>5.104957875978621</v>
+        <v>7.75161080971212</v>
       </c>
       <c r="E22">
-        <v>5.474321033081337</v>
+        <v>9.499994159851525</v>
       </c>
       <c r="F22">
-        <v>53.64327578481934</v>
+        <v>43.9997977071782</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.465205695206153</v>
+        <v>10.64581876654325</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.48817043174698</v>
+        <v>19.82985583129746</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.78357872980978</v>
+        <v>27.25557731152014</v>
       </c>
       <c r="C23">
-        <v>22.84624003917674</v>
+        <v>12.02219825100439</v>
       </c>
       <c r="D23">
-        <v>5.099532745656648</v>
+        <v>7.758517679910192</v>
       </c>
       <c r="E23">
-        <v>5.485078821213508</v>
+        <v>9.506598158576983</v>
       </c>
       <c r="F23">
-        <v>52.6122075126179</v>
+        <v>43.78449436641162</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.31838077971134</v>
+        <v>10.62976087263972</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.56735055033064</v>
+        <v>19.85085246293843</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.39452499251971</v>
+        <v>26.32674797297618</v>
       </c>
       <c r="C24">
-        <v>20.92247686849997</v>
+        <v>11.13744876870864</v>
       </c>
       <c r="D24">
-        <v>5.097605752904294</v>
+        <v>7.786973199294095</v>
       </c>
       <c r="E24">
-        <v>5.529688763082071</v>
+        <v>9.532916606018313</v>
       </c>
       <c r="F24">
-        <v>48.72924523959457</v>
+        <v>42.98290495356527</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.767738336384895</v>
+        <v>10.57288821872596</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.88359759755792</v>
+        <v>19.93391879890898</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.576176004818</v>
+        <v>25.31757069663357</v>
       </c>
       <c r="C25">
-        <v>18.75072085094854</v>
+        <v>10.09719606646479</v>
       </c>
       <c r="D25">
-        <v>5.127608243381992</v>
+        <v>7.822519489547913</v>
       </c>
       <c r="E25">
-        <v>5.585223626910755</v>
+        <v>9.564108244325958</v>
       </c>
       <c r="F25">
-        <v>44.56078855040571</v>
+        <v>42.15167167374197</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.182660433822095</v>
+        <v>10.52010627326199</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.25337030743678</v>
+        <v>20.03106089177414</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.57465587734637</v>
+        <v>29.60365288162755</v>
       </c>
       <c r="C2">
-        <v>9.256536877775636</v>
+        <v>17.0541070350285</v>
       </c>
       <c r="D2">
-        <v>7.852815787582229</v>
+        <v>5.170965909222656</v>
       </c>
       <c r="E2">
-        <v>9.589500852679581</v>
+        <v>5.631849147083297</v>
       </c>
       <c r="F2">
-        <v>41.57193039689167</v>
+        <v>41.49293326998572</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.48871128386846</v>
+        <v>7.758166866812532</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.10905685934477</v>
+        <v>13.54572070562905</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.07473069002777</v>
+        <v>27.58318679699656</v>
       </c>
       <c r="C3">
-        <v>8.639776147237788</v>
+        <v>15.83757789858877</v>
       </c>
       <c r="D3">
-        <v>7.875895845758047</v>
+        <v>5.211062263394702</v>
       </c>
       <c r="E3">
-        <v>9.608231250050473</v>
+        <v>5.666783217877</v>
       </c>
       <c r="F3">
-        <v>41.2008612623715</v>
+        <v>39.4127219880334</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.47213174224119</v>
+        <v>7.474436082922757</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.16594502128077</v>
+        <v>13.75479563511772</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.77074027902026</v>
+        <v>26.33174911281368</v>
       </c>
       <c r="C4">
-        <v>8.237740905599523</v>
+        <v>15.05606638253301</v>
       </c>
       <c r="D4">
-        <v>7.891315933408685</v>
+        <v>5.240258295869187</v>
       </c>
       <c r="E4">
-        <v>9.620485003206959</v>
+        <v>5.689814234437004</v>
       </c>
       <c r="F4">
-        <v>40.9843093299569</v>
+        <v>38.13582115413924</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.46427795857785</v>
+        <v>7.302344795383518</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.20286001205965</v>
+        <v>13.8881831245843</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.64779423517601</v>
+        <v>25.81142918111343</v>
       </c>
       <c r="C5">
-        <v>8.068018890434301</v>
+        <v>14.72868598027142</v>
       </c>
       <c r="D5">
-        <v>7.897912594986595</v>
+        <v>5.25321378947036</v>
       </c>
       <c r="E5">
-        <v>9.625668289068519</v>
+        <v>5.699589002545076</v>
       </c>
       <c r="F5">
-        <v>40.89897459810155</v>
+        <v>37.61585519903537</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.46166356297643</v>
+        <v>7.232790033724871</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.21840202707692</v>
+        <v>13.94375412354424</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.62744093717568</v>
+        <v>25.72440958890849</v>
       </c>
       <c r="C6">
-        <v>8.039480391074317</v>
+        <v>14.67378069684429</v>
       </c>
       <c r="D6">
-        <v>7.899026826828183</v>
+        <v>5.255426411825562</v>
       </c>
       <c r="E6">
-        <v>9.626540443350621</v>
+        <v>5.70123539785209</v>
       </c>
       <c r="F6">
-        <v>40.88498273707329</v>
+        <v>37.52954926066861</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.46126486766305</v>
+        <v>7.221276562636265</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.22101288555718</v>
+        <v>13.9530538135077</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.76907816234892</v>
+        <v>26.32477362735154</v>
       </c>
       <c r="C7">
-        <v>8.235475847662768</v>
+        <v>15.05168755833324</v>
       </c>
       <c r="D7">
-        <v>7.891403633108447</v>
+        <v>5.240428850157733</v>
       </c>
       <c r="E7">
-        <v>9.620554137878608</v>
+        <v>5.689944493562128</v>
       </c>
       <c r="F7">
-        <v>40.98314659264262</v>
+        <v>38.12880668814481</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.46424032567515</v>
+        <v>7.30140437076237</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.20306759773546</v>
+        <v>13.88892771169062</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.40177773232991</v>
+        <v>28.88305102682131</v>
       </c>
       <c r="C8">
-        <v>9.048710301975317</v>
+        <v>16.64168196801931</v>
       </c>
       <c r="D8">
-        <v>7.860513881002285</v>
+        <v>5.183781882602169</v>
       </c>
       <c r="E8">
-        <v>9.595802992537925</v>
+        <v>5.643560902990293</v>
       </c>
       <c r="F8">
-        <v>41.44168969227907</v>
+        <v>40.77573555482705</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.48251270127108</v>
+        <v>7.659917103258074</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.12825957886528</v>
+        <v>13.61673796969328</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.65793799425828</v>
+        <v>33.88619342156458</v>
       </c>
       <c r="C9">
-        <v>10.45915852073305</v>
+        <v>19.4965694005238</v>
       </c>
       <c r="D9">
-        <v>7.809901798322071</v>
+        <v>5.113818247516885</v>
       </c>
       <c r="E9">
-        <v>9.553225437205752</v>
+        <v>5.565588471112926</v>
       </c>
       <c r="F9">
-        <v>42.42689102791093</v>
+        <v>45.96406774186833</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.53673197986329</v>
+        <v>8.378724974091769</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.9973322749885</v>
+        <v>13.12543726108342</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.57971266673569</v>
+        <v>37.32601737333183</v>
       </c>
       <c r="C10">
-        <v>11.38431239429845</v>
+        <v>21.45146225597313</v>
       </c>
       <c r="D10">
-        <v>7.778865465389941</v>
+        <v>5.095263949747632</v>
       </c>
       <c r="E10">
-        <v>9.525553289586037</v>
+        <v>5.516960826592794</v>
       </c>
       <c r="F10">
-        <v>43.19801815052898</v>
+        <v>49.78047798337216</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.58765641627453</v>
+        <v>8.916387154791373</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.91077829836105</v>
+        <v>12.79524009638624</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.99670009313969</v>
+        <v>38.84664790546216</v>
       </c>
       <c r="C11">
-        <v>11.78133141734197</v>
+        <v>22.31459764710632</v>
       </c>
       <c r="D11">
-        <v>7.766097839835222</v>
+        <v>5.096054892915</v>
       </c>
       <c r="E11">
-        <v>9.513743412342714</v>
+        <v>5.496933422844958</v>
       </c>
       <c r="F11">
-        <v>43.55791197821222</v>
+        <v>51.52298460661032</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.61319629520944</v>
+        <v>9.163515098877509</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.87350149933702</v>
+        <v>12.65322870740443</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.15410227271438</v>
+        <v>39.41685384393715</v>
       </c>
       <c r="C12">
-        <v>11.92826517657317</v>
+        <v>22.63816096157397</v>
       </c>
       <c r="D12">
-        <v>7.761458749946631</v>
+        <v>5.097891963520249</v>
       </c>
       <c r="E12">
-        <v>9.509382875959673</v>
+        <v>5.489673513939128</v>
       </c>
       <c r="F12">
-        <v>43.69539951388224</v>
+        <v>52.18449638634228</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.62320523640169</v>
+        <v>9.25753712509643</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.85968796943787</v>
+        <v>12.60080269206526</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.12022777162954</v>
+        <v>39.29428678725148</v>
       </c>
       <c r="C13">
-        <v>11.89677166229859</v>
+        <v>22.56861358160947</v>
       </c>
       <c r="D13">
-        <v>7.76244913207368</v>
+        <v>5.097424229130023</v>
       </c>
       <c r="E13">
-        <v>9.510317036637538</v>
+        <v>5.491222234225614</v>
       </c>
       <c r="F13">
-        <v>43.66573728793939</v>
+        <v>52.04193929135897</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.62103468546539</v>
+        <v>9.23726666933641</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.86264949774952</v>
+        <v>12.61203030252308</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.00966064485445</v>
+        <v>38.89366712427154</v>
       </c>
       <c r="C14">
-        <v>11.79348795262505</v>
+        <v>22.34128027052603</v>
       </c>
       <c r="D14">
-        <v>7.765712247859424</v>
+        <v>5.096173892388943</v>
       </c>
       <c r="E14">
-        <v>9.513382433378686</v>
+        <v>5.496329502329518</v>
       </c>
       <c r="F14">
-        <v>43.56919965180992</v>
+        <v>51.57736903573908</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.61401299556405</v>
+        <v>9.171240978328539</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.87235898672665</v>
+        <v>12.64888738138695</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.94186494042982</v>
+        <v>38.64756763643491</v>
       </c>
       <c r="C15">
-        <v>11.72978034865748</v>
+        <v>22.20161940427936</v>
       </c>
       <c r="D15">
-        <v>7.767736534611047</v>
+        <v>5.095615062156266</v>
       </c>
       <c r="E15">
-        <v>9.515274602818019</v>
+        <v>5.499500816224394</v>
       </c>
       <c r="F15">
-        <v>43.51022113002914</v>
+        <v>51.29304950027144</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.60975584410452</v>
+        <v>9.130858440447218</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.87834573411007</v>
+        <v>12.67164512520249</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55240017975752</v>
+        <v>37.2258108695769</v>
       </c>
       <c r="C16">
-        <v>11.35788822344564</v>
+        <v>21.39456671260349</v>
       </c>
       <c r="D16">
-        <v>7.779727169317383</v>
+        <v>5.095415241813501</v>
       </c>
       <c r="E16">
-        <v>9.526340727687382</v>
+        <v>5.518313648914905</v>
       </c>
       <c r="F16">
-        <v>43.17467246422938</v>
+        <v>49.66678722329701</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.58603477912578</v>
+        <v>8.900293519178534</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.91325669267001</v>
+        <v>12.80469957474812</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.31275740521278</v>
+        <v>36.34277199762765</v>
       </c>
       <c r="C17">
-        <v>11.12365259573329</v>
+        <v>20.89307978123283</v>
       </c>
       <c r="D17">
-        <v>7.787430084208665</v>
+        <v>5.09779652377435</v>
       </c>
       <c r="E17">
-        <v>9.533328558406476</v>
+        <v>5.530405819277197</v>
       </c>
       <c r="F17">
-        <v>42.97108161761194</v>
+        <v>48.67121256311285</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.5720881400301</v>
+        <v>8.759543140956792</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.9352111134027</v>
+        <v>12.88853326057033</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.17471107605079</v>
+        <v>35.83066342988731</v>
       </c>
       <c r="C18">
-        <v>10.98668155982642</v>
+        <v>20.60214332776592</v>
       </c>
       <c r="D18">
-        <v>7.791987666561871</v>
+        <v>5.100020717074434</v>
       </c>
       <c r="E18">
-        <v>9.537421051517951</v>
+        <v>5.537556344258109</v>
       </c>
       <c r="F18">
-        <v>42.85484497165262</v>
+        <v>48.09912744344629</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.56429012241622</v>
+        <v>8.67882024022312</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.94803604585935</v>
+        <v>12.9375112323542</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.12794009139926</v>
+        <v>35.65652964328508</v>
       </c>
       <c r="C19">
-        <v>10.93991937229946</v>
+        <v>20.50319565545129</v>
       </c>
       <c r="D19">
-        <v>7.793552565599031</v>
+        <v>5.100914677545535</v>
       </c>
       <c r="E19">
-        <v>9.538819294543153</v>
+        <v>5.540010329690901</v>
       </c>
       <c r="F19">
-        <v>42.81564071565763</v>
+        <v>47.90550423549126</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.56168838180633</v>
+        <v>8.651527146368695</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.95241221468436</v>
+        <v>12.95422012157635</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.33829077207369</v>
+        <v>36.4372036812799</v>
       </c>
       <c r="C20">
-        <v>11.14881957749092</v>
+        <v>20.94671890650713</v>
       </c>
       <c r="D20">
-        <v>7.786596934019413</v>
+        <v>5.097453171492185</v>
       </c>
       <c r="E20">
-        <v>9.532577110228017</v>
+        <v>5.529098209643212</v>
       </c>
       <c r="F20">
-        <v>42.99266560792142</v>
+        <v>48.77713245512647</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.57354965584807</v>
+        <v>8.774501713623357</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.93285359903686</v>
+        <v>12.87952934871473</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.04215179268834</v>
+        <v>39.01148495073943</v>
       </c>
       <c r="C21">
-        <v>11.823917241341</v>
+        <v>22.40813860542642</v>
       </c>
       <c r="D21">
-        <v>7.764748467714385</v>
+        <v>5.096497577306558</v>
       </c>
       <c r="E21">
-        <v>9.512479025516761</v>
+        <v>5.494820371890549</v>
       </c>
       <c r="F21">
-        <v>43.59752328345677</v>
+        <v>51.71377218952821</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.61606630812328</v>
+        <v>9.190621615824668</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.86949886090756</v>
+        <v>12.63802332495424</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.49916959382473</v>
+        <v>40.66159351241632</v>
       </c>
       <c r="C22">
-        <v>12.24527275301516</v>
+        <v>23.34438317104898</v>
       </c>
       <c r="D22">
-        <v>7.75161080971212</v>
+        <v>5.104957875978621</v>
       </c>
       <c r="E22">
-        <v>9.499994159851525</v>
+        <v>5.474321033081312</v>
       </c>
       <c r="F22">
-        <v>43.9997977071782</v>
+        <v>53.64327578481933</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.64581876654325</v>
+        <v>9.465205695206143</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.82985583129746</v>
+        <v>12.48817043174696</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.25557731152014</v>
+        <v>39.78357872980979</v>
       </c>
       <c r="C23">
-        <v>12.02219825100439</v>
+        <v>22.84624003917668</v>
       </c>
       <c r="D23">
-        <v>7.758517679910192</v>
+        <v>5.099532745656686</v>
       </c>
       <c r="E23">
-        <v>9.506598158576983</v>
+        <v>5.485078821213574</v>
       </c>
       <c r="F23">
-        <v>43.78449436641162</v>
+        <v>52.61220751261788</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.62976087263972</v>
+        <v>9.318380779711372</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.85085246293843</v>
+        <v>12.56735055033058</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.32674797297618</v>
+        <v>36.39452499251965</v>
       </c>
       <c r="C24">
-        <v>11.13744876870864</v>
+        <v>20.92247686850001</v>
       </c>
       <c r="D24">
-        <v>7.786973199294095</v>
+        <v>5.097605752904337</v>
       </c>
       <c r="E24">
-        <v>9.532916606018313</v>
+        <v>5.529688763082012</v>
       </c>
       <c r="F24">
-        <v>42.98290495356527</v>
+        <v>48.72924523959446</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.57288821872596</v>
+        <v>8.767738336384886</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.93391879890898</v>
+        <v>12.88359759755798</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.31757069663357</v>
+        <v>32.57617600481801</v>
       </c>
       <c r="C25">
-        <v>10.09719606646479</v>
+        <v>18.75072085094855</v>
       </c>
       <c r="D25">
-        <v>7.822519489547913</v>
+        <v>5.127608243382207</v>
       </c>
       <c r="E25">
-        <v>9.564108244325958</v>
+        <v>5.585223626911067</v>
       </c>
       <c r="F25">
-        <v>42.15167167374197</v>
+        <v>44.5607885504057</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.52010627326199</v>
+        <v>8.182660433822143</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.03106089177414</v>
+        <v>13.25337030743679</v>
       </c>
       <c r="O25">
         <v>0</v>
